--- a/draft/schedule.xlsx
+++ b/draft/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgr/Box/Funding/2021_db-serc_course_transformation/draft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{824FF43A-3526-2742-8B52-9D926E807F8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE6831-BE76-F94E-9604-0BDF065A00C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="500" windowWidth="22020" windowHeight="17500" xr2:uid="{451E1ACE-2E0F-8648-A9A5-550BB95D767E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27560" windowHeight="17500" xr2:uid="{451E1ACE-2E0F-8648-A9A5-550BB95D767E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="169">
   <si>
     <t>Date</t>
   </si>
@@ -479,21 +479,9 @@
     <t>Final Exam Period</t>
   </si>
   <si>
-    <t>1.1-2</t>
-  </si>
-  <si>
-    <t>2.1-2.2, 1.1-3</t>
-  </si>
-  <si>
-    <t>3.1-2, 2.1-3</t>
-  </si>
-  <si>
     <t>Syllabus and introduction</t>
   </si>
   <si>
-    <t>4.1-2, 3.1-3</t>
-  </si>
-  <si>
     <t>First</t>
   </si>
   <si>
@@ -509,10 +497,531 @@
     <t>Coulomb's Law and Shell Model</t>
   </si>
   <si>
-    <t>1.1-4.3</t>
-  </si>
-  <si>
-    <t>5.1</t>
+    <t>Unit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.1-2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.1-2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.1-2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   Week</t>
   </si>
 </sst>
 </file>
@@ -551,7 +1060,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,12 +1121,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -631,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -733,51 +1236,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1099,269 +1649,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE142AF2-D676-D540-81E0-65F9E240DA3E}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4" style="68" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>2</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="71"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="55"/>
+      <c r="C5" s="39">
+        <v>3</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="71"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="55"/>
+      <c r="C6" s="39">
+        <v>4</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="71"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="56">
+        <v>2</v>
+      </c>
+      <c r="C7" s="40">
+        <v>5</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="56"/>
+      <c r="C8" s="40">
+        <v>6</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="72"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="56"/>
+      <c r="C9" s="40">
+        <v>7</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="72"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="57">
+        <v>3</v>
+      </c>
+      <c r="C10" s="41">
+        <v>8</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
-        <v>1</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="51">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39">
-        <v>3</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="51">
-        <v>1.2</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
+      <c r="E10" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="57"/>
+      <c r="C11" s="41">
+        <v>9</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="57"/>
+      <c r="C12" s="41">
+        <v>10</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="58">
         <v>4</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="51">
-        <v>1.3</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="52"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40">
+      <c r="C13" s="42">
+        <v>11</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="74"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="58"/>
+      <c r="C14" s="42">
+        <v>12</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="58"/>
+      <c r="C15" s="42">
+        <v>13</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="74"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="59">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="53">
-        <v>2.1</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40">
-        <v>6</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="53">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40">
-        <v>7</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="53">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="54"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41">
-        <v>8</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="55">
-        <v>3.1</v>
-      </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="41">
-        <v>9</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="55">
-        <v>3.2</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41">
-        <v>10</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="55">
-        <v>3.3</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="56"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="42">
-        <v>11</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="57">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="42">
-        <v>12</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="57">
-        <v>4.2</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="42">
-        <v>13</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="57">
-        <v>4.3</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="58"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="43">
+      <c r="C16" s="43">
         <v>14</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="D16" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="59">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="43">
+      <c r="E16" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="75"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="59"/>
+      <c r="C17" s="43">
         <v>15</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="D17" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49" t="s">
+      <c r="E17" s="66"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="75"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="61">
-        <v>5.2</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="44"/>
+      <c r="E18" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="6">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D18" numberStoredAsText="1"/>
+    <ignoredError sqref="E18:F18 E4:E16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
